--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_001.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_001.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295005AA2.04) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295027EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295037EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Boron effects on reactor power</t>
+  </si>
+  <si>
+    <t>(295004AK2.04) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) AC electrical distribution system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
+  </si>
+  <si>
+    <t>(295006AA1.01) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) RPS</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295016AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295018AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Starting the standby pump</t>
+  </si>
+  <si>
+    <t>(295030EK2.04) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
+  </si>
+  <si>
+    <t>(295024EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(600000AA1.02) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Fire detectors/heat detectors </t>
+  </si>
+  <si>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295001AK3.07) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Recirculation pump discharge/suction valve manipulation </t>
+  </si>
+  <si>
+    <t>(295038EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Filtered vs. nonfiltered release</t>
+  </si>
+  <si>
+    <t>(295025EK2.08) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295003AA2.04) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups </t>
+  </si>
+  <si>
+    <t>(295005AA1.09) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) Reactor water level control system</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
   </si>
   <si>
     <t>(295026EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) Emergency/normal depressurization</t>
   </si>
   <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(600000AA1.05) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6): Plant and control room ventilation systems</t>
-  </si>
-  <si>
-    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(295037EK2.02) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) Redundant reactivity control system</t>
+    <t>(295036EK2.03) Knowledge of the relationship between the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Radwaste system</t>
+  </si>
+  <si>
+    <t>(295008AA2.02) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Steam flow/feedflow mismatch</t>
+  </si>
+  <si>
+    <t>(295010AA1.08) Ability to operate and/or monitor the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Component cooling water</t>
+  </si>
+  <si>
+    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295009AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.5 / 45.6) Recirculation runback</t>
+  </si>
+  <si>
+    <t>(295011AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Containment pressure</t>
+  </si>
+  <si>
+    <t>(218000K2.01) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) ADS logic</t>
+  </si>
+  <si>
+    <t>(215005K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RMCS (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(510000A4.02) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Valve operations</t>
+  </si>
+  <si>
+    <t>(263000K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Breaker malfunctions</t>
+  </si>
+  <si>
+    <t>(205000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.5 / 45.5) Heat exchanger temperatures</t>
+  </si>
+  <si>
+    <t>(239002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.5 / 45.3) Safety function of SRV operation</t>
+  </si>
+  <si>
+    <t>(209001A3.01) Ability to monitor automatic operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(262001K4.02) Knowledge of (SF6 AC) AC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Circuit breaker automatic trips</t>
+  </si>
+  <si>
+    <t>(259002A2.06) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of controller signal output</t>
+  </si>
+  <si>
+    <t>(300000K3.26) Knowledge of the effect that a loss or malfunction of the (SF8 IA) INSTRUMENT AIR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Service water system</t>
+  </si>
+  <si>
+    <t>(211000K2.02) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Squib valves</t>
+  </si>
+  <si>
+    <t>(209002K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant ventilation systems (HPCS room coolers )</t>
+  </si>
+  <si>
+    <t>(261000A4.04) Ability to manually operate and/or monitor the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Primary containment pressure</t>
+  </si>
+  <si>
+    <t>(215004K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) 24/48 volt DC power</t>
+  </si>
+  <si>
+    <t>(212000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) Valve position</t>
+  </si>
+  <si>
+    <t>(262002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.5 / 45.3) Motor generator operation</t>
+  </si>
+  <si>
+    <t>(264000A3.07) Ability to monitor automatic operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.7 / 45.7) Room ventilation system</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (291007K1.08) DEMINERALIZERS AND ION EXCHANGERS (CFR: 41.3) Demineralizer D/P to determine condition of demineralizer resin bed</t>
+  </si>
+  <si>
+    <t>(217000K4.12) Knowledge of (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic flow control</t>
+  </si>
+  <si>
+    <t>(223002A2.12) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Plant pneumatic system failures</t>
+  </si>
+  <si>
+    <t>(400000K3.12) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup system</t>
+  </si>
+  <si>
+    <t>(218000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) ADS logic operation</t>
+  </si>
+  <si>
+    <t>(215005K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(510000A4.01) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Pump operations</t>
+  </si>
+  <si>
+    <t>(263000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Station blackout</t>
+  </si>
+  <si>
+    <t>(201003A2.02) Ability to (a) predict the impacts of the following on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1-6 / 45.1-6) Uncoupled rod</t>
+  </si>
+  <si>
+    <t>(259001K3.07) Knowledge of the effect that a loss or malfunction of the (SF2 FWS) FEEDWATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Condensate system</t>
+  </si>
+  <si>
+    <t>(290003K2.04) (SF9 CRV) CONTROL ROOM VENTILATION Knowledge of electrical power supplies to the following: (CFR: 41.7) Control room HVAC logic</t>
+  </si>
+  <si>
+    <t>(245000K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Feedwater system</t>
+  </si>
+  <si>
+    <t>(226001A4.07) Ability to manually operate and/or monitor the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE in the control room: (CFR: 41.7 / 45.5 to 45.8) Valve logic reset/bypass/override</t>
+  </si>
+  <si>
+    <t>(510001K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.7 / 45.7) Cooling tower level control valve malfunction</t>
+  </si>
+  <si>
+    <t>(202001A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1, SF4 RS) RECIRCULATION SYSTEM including: (CFR: 41.5 / 45.5) Recirculation pump flow</t>
+  </si>
+  <si>
+    <t>(290002K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 RVI) REACTOR VESSEL INTERNALS: (CFR: 41.5 / 45.3) Natural circulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(233000A3.02) Ability to monitor automatic operation of the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP including: (CFR: 41.7 / 45.7) Pump trip(s) </t>
+  </si>
+  <si>
+    <t>(201001) (SF1 CRDH) CRD HYDRAULIC SYSTEM (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(256000K4.02) Knowledge of (SF2 CDS) CONDENSATE SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) CRD pump suction</t>
+  </si>
+  <si>
+    <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
+  </si>
+  <si>
+    <t>(292002K1.12) NEUTRON LIFE CYCLE (CFR: 41.1) State the relationship between reactivity and effective multiplication factor</t>
+  </si>
+  <si>
+    <t>(292005K1.02) CONTROL RODS (CFR: 41.1) Name the material used for thermal neutron absorption in control rods</t>
+  </si>
+  <si>
+    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
+  </si>
+  <si>
+    <t>(293009K1.05) CORE THERMAL LIMITS (CFR: 41.14) State the reason thermal limits are necessary</t>
+  </si>
+  <si>
+    <t>(293004K1.14) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Explain the condensing process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(293007K1.09) HEAT TRANSFER (CFR: 41.14) (CONDENSER APPLICATIONS OF HEAT TRANSFER) Discuss operational implications of condensate </t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
   </si>
   <si>
     <t>(295027EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
   </si>
   <si>
-    <t>(295025EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Safety/relief valve operation</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295001AA1.01) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Recirculation system</t>
-  </si>
-  <si>
-    <t>(295024EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Drywell integrity</t>
-  </si>
-  <si>
-    <t>(295023AK2.10) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Nuclear instrumentation</t>
-  </si>
-  <si>
-    <t>(295016AA2.04) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295019AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Standby air compressor operation</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(295030EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Systems required to shut down the reactor</t>
-  </si>
-  <si>
-    <t>(295003AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
-  </si>
-  <si>
-    <t>(295018AK2.03) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Reactor water cleanup system</t>
-  </si>
-  <si>
-    <t>(295006AA2.05) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Whether a reactor SCRAM has occurred</t>
-  </si>
-  <si>
-    <t>(295021AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Establishing alternate heat removal flow paths</t>
-  </si>
-  <si>
-    <t>(295036EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.7 / 45.6 / 45.8) Radwaste system</t>
-  </si>
-  <si>
-    <t>(295032EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.8 to 41.10) Impact of operating environment on components</t>
-  </si>
-  <si>
-    <t>(295035EK2.02) Knowledge of the relationship between the (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) SGTS/FRVS</t>
-  </si>
-  <si>
-    <t>(295010AA2.07) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell/containment or suppression chamber differential</t>
-  </si>
-  <si>
-    <t>(295012AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.5 / 45.6) Venting</t>
-  </si>
-  <si>
-    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
-  </si>
-  <si>
-    <t>(510000A3.03) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Traveling screen operation</t>
-  </si>
-  <si>
-    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(262001K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Emergency generators</t>
-  </si>
-  <si>
-    <t>(217000K5.10) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Reactor level control</t>
-  </si>
-  <si>
-    <t>(261000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) Secondary containment differential pressure</t>
-  </si>
-  <si>
-    <t>(212000K4.10) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Individual rod testing</t>
-  </si>
-  <si>
-    <t>(259002A4.10) Ability to manually operate and/or monitor the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Setpoint setdown reset controls</t>
-  </si>
-  <si>
-    <t>(209001K2.03) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation logic</t>
-  </si>
-  <si>
-    <t>(223002K3.34) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Process radiation monitoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(209002A2.09) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of plant ventilation (HPCS room cooler) </t>
-  </si>
-  <si>
-    <t>(239002K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Automatic depressurization system</t>
-  </si>
-  <si>
-    <t>(400000A3.02) Ability to monitor automatic operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.7 / 45.7) Containment isolation</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (291006K1.08) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Relationship between flow rates and temperatures</t>
-  </si>
-  <si>
-    <t>(263000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Degraded voltage</t>
-  </si>
-  <si>
-    <t>(215005K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) APRM operation</t>
-  </si>
-  <si>
-    <t>(218000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.5 / 45.5) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(215003K4.07) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Bypassing an IRM channel</t>
-  </si>
-  <si>
-    <t>(262002A4.01) Ability to manually operate and/or monitor the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of power sources</t>
-  </si>
-  <si>
-    <t>(211000K2.03) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Heater power</t>
-  </si>
-  <si>
-    <t>(215004K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RPS</t>
-  </si>
-  <si>
-    <t>(203000A2.02) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump trips</t>
-  </si>
-  <si>
-    <t>(264000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(510000A3.02) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Valve alignment</t>
-  </si>
-  <si>
-    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(262001K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) DC power</t>
-  </si>
-  <si>
-    <t>(217000K5.09) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(241000A2.14) Ability to (a) predict the impacts of the following on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of main turbine prime mover governor</t>
-  </si>
-  <si>
-    <t>(288000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 PVS) PLANT VENTILATION SYSTEMS and the following systems: (CFR: 41.4 / 41.5 / 45.7 / 45.8) Component cooling water system</t>
-  </si>
-  <si>
-    <t>(219000A3.01) Ability to monitor automatic operation of the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(215001) (SF7 TIP) TRAVERSING IN CORE PROBE (291004K1.14) PUMPS (CFR: 41.3) (CENTRIFUGAL) Relationship between flow from a pump and suction heads</t>
-  </si>
-  <si>
-    <t>(245000K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS: (CFR: 41.7 / 45.7) Voltage regulator</t>
-  </si>
-  <si>
-    <t>(290002K5.09) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 RVI) REACTOR VESSEL INTERNALS: (CFR: 41.5 / 45.3) Plant radiation levels</t>
-  </si>
-  <si>
-    <t>(510001A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CWS*) CIRCULATING WATER SYSTEM including: (CFR: 41.5 / 45.5) Weather changes</t>
-  </si>
-  <si>
-    <t>(202002K4.12) Knowledge of (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Flow control valve runback</t>
-  </si>
-  <si>
-    <t>(223001A4.17) Ability to manually operate and/or monitor the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES in the control room: (CFR: 41.7 / 45.5 to 45.8) Hardened containment vent</t>
-  </si>
-  <si>
-    <t>(268000K2.01) (SF9 RW) RADWASTE SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Radiological release isolation valves</t>
-  </si>
-  <si>
-    <t>(239001K3.04) Knowledge of the effect that a loss or malfunction of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Offgas system</t>
-  </si>
-  <si>
-    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(292004K1.10) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the void coefficient of reactivity</t>
-  </si>
-  <si>
-    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
-  </si>
-  <si>
-    <t>(292002K1.08) NEUTRON LIFE CYCLE (CFR: 41.1) Define effective multiplication factor (K-effective) and discuss its relationship to the state of a reactor (critical, subcritical, and supercritical)</t>
-  </si>
-  <si>
-    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
-  </si>
-  <si>
-    <t>(293003K1.12) STEAM (CFR: 41.14) Define the following term: Quality</t>
-  </si>
-  <si>
-    <t>(293010K1.04) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State how the possibility of brittle fracture is minimized by operating limitations</t>
-  </si>
-  <si>
-    <t>(295005AA2.09) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Turbine limitations</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
     <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
   </si>
   <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295027EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
-  </si>
-  <si>
-    <t>(295017AA2.05) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
-  </si>
-  <si>
-    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295014AA2.01) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(261000A2.04) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High train moisture content</t>
-  </si>
-  <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(259002A2.07) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of comparator bias signal</t>
-  </si>
-  <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(223002A2.13) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Leak detection system failures</t>
-  </si>
-  <si>
-    <t>(233000) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(216000A2.09) Ability to (a) predict the impacts of the following on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Jet pump malfunction</t>
-  </si>
-  <si>
-    <t>(286000) (SF8 FPS) FIRE PROTECTION SYSTEM  (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295006AA2.03) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295017AA2.04) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Source of offsite release</t>
+  </si>
+  <si>
+    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(239002A2.06) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Reactor high pressure</t>
+  </si>
+  <si>
+    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215003A2.02) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) IRM inoperable condition</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(202002A2.03) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of DC electrical power</t>
+  </si>
+  <si>
+    <t>(239001) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t>(204000A2.02) Ability to (a) predict the impacts of the following on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pressure control valve failure</t>
+  </si>
+  <si>
+    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
   </si>
   <si>
     <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K2</t>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K5</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>K4</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,73 +385,70 @@
     <t>T</t>
   </si>
   <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
     <t>295005</t>
   </si>
   <si>
+    <t>700000</t>
+  </si>
+  <si>
     <t>295026</t>
   </si>
   <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
     <t>295036</t>
   </si>
   <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295035</t>
+    <t>295008</t>
   </si>
   <si>
     <t>295010</t>
@@ -460,142 +457,145 @@
     <t>295012</t>
   </si>
   <si>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
     <t>295013</t>
   </si>
   <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
     <t>202002</t>
   </si>
   <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
     <t>239001</t>
   </si>
   <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>286000</t>
+    <t>204000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,7 +1443,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D29" t="s">
         <v>107</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1650,7 +1650,7 @@
         <v>3.6</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1718,7 +1718,7 @@
         <v>3.1</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,7 +1817,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="D51" t="s">
         <v>107</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,7 +2259,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D77" t="s">
         <v>105</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,7 +2293,7 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D79" t="s">
         <v>105</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,7 +2361,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D83" t="s">
         <v>105</v>
@@ -2378,7 +2378,7 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D84" t="s">
         <v>105</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,7 +2412,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="D86" t="s">
         <v>105</v>
@@ -2429,7 +2429,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="D87" t="s">
         <v>105</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,7 +2463,7 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="D89" t="s">
         <v>105</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,7 +2531,7 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="s">
         <v>105</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
